--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_9_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_9_sawtooth_0.5_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05362787832339</v>
+        <v>0.6096806208067198</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05362787832339</v>
+        <v>0.6096806208067198</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>8.172525986392394</v>
+        <v>2.873323447694827</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-0.17095866289873385, 16.51601063568352]</t>
+          <t>[-5.235292234706125, 10.981939130095778]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.05467663024570091</v>
+        <v>0.4790942653775361</v>
       </c>
       <c r="O2" t="n">
-        <v>0.05467663024570091</v>
+        <v>0.4790942653775361</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.484316048542925</v>
+        <v>-0.8176317216550011</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.8680005005744658, -0.1006315965113842]</t>
+          <t>[-3.956079637853814, 2.320816194543812]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.03608952485503591</v>
+        <v>0.6023559687572058</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03608952485503591</v>
+        <v>0.6023559687572058</v>
       </c>
       <c r="T2" t="n">
-        <v>14.08776004678188</v>
+        <v>11.27073123817208</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.230678621370451, 18.94484147219331]</t>
+          <t>[7.059477421560091, 15.481985054784067]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.358776413721955e-07</v>
+        <v>2.482267692949236e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>5.358776413721955e-07</v>
+        <v>2.482267692949236e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>6.139779779779925</v>
+        <v>3.382082082082164</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4162562562562631</v>
+        <v>-9.599909909910142</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.86330330330359</v>
+        <v>16.36407407407447</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6573200120247049</v>
+        <v>0.4364407198044931</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6573200120247049</v>
+        <v>0.4364407198044931</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.396692576038457</v>
+        <v>4.189797053738692</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-7.156361267519974, 13.949746419596888]</t>
+          <t>[-4.333231211233798, 12.712825318711182]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.5201009717253677</v>
+        <v>0.3274174498818065</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5201009717253677</v>
+        <v>0.3274174498818065</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.8931054190385392</v>
+        <v>-1.396263401595464</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.0189743856734275, 2.232763547596349]</t>
+          <t>[-4.50955341866643, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5678481114467764</v>
+        <v>0.3711796174488051</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5678481114467764</v>
+        <v>0.3711796174488051</v>
       </c>
       <c r="T3" t="n">
-        <v>15.39582661353693</v>
+        <v>11.87289968298832</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.95831006390953, 20.833343163164322]</t>
+          <t>[7.073513567262134, 16.672285798714512]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.607156389839332e-07</v>
+        <v>9.748779093099458e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>8.607156389839332e-07</v>
+        <v>9.748779093099458e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>3.69427427427436</v>
+        <v>5.775555555555695</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.235685685685906</v>
+        <v>-7.102372372372542</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.62423423423463</v>
+        <v>18.65348348348393</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7522311210581704</v>
+        <v>0.7416111861138102</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7522311210581704</v>
+        <v>0.7416111861138102</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.578107044819733</v>
+        <v>3.160552264796364</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-6.6360200560799765, 11.792234145719442]</t>
+          <t>[-7.847627953370742, 14.168732482963469]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5758615844578285</v>
+        <v>0.5659660593504228</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5758615844578285</v>
+        <v>0.5659660593504228</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.050368778919465</v>
+        <v>-1.836526636332772</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.182527220336315, 1.0817896624973855]</t>
+          <t>[-4.9309482290578535, 1.2578949563923087]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1940180651393508</v>
+        <v>0.2382071584112135</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1940180651393508</v>
+        <v>0.2382071584112135</v>
       </c>
       <c r="T4" t="n">
-        <v>14.70514677003894</v>
+        <v>15.21563789837347</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.833263261976402, 19.577030278101482]</t>
+          <t>[9.29253624748165, 21.138739549265285]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.380734864804168e-07</v>
+        <v>5.143654590478164e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>2.380734864804168e-07</v>
+        <v>5.143654590478164e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>8.481221221221425</v>
+        <v>7.596676676676861</v>
       </c>
       <c r="Y4" t="n">
-        <v>-4.47475475475486</v>
+        <v>-5.203203203203325</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.43719719719771</v>
+        <v>20.39655655655704</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4809386964681566</v>
+        <v>0.007290346212915022</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4809386964681566</v>
+        <v>0.007290346212915022</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.354765713747305</v>
+        <v>9.860930522735769</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-4.564551433728649, 13.27408286122326]</t>
+          <t>[1.8026379472797913, 17.919223098191747]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3306854058573547</v>
+        <v>0.01759757688795527</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3306854058573547</v>
+        <v>0.01759757688795527</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.930895248394081</v>
+        <v>-2.025210879791619</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-6.063053689810932, 0.2012631930227693]</t>
+          <t>[-2.9183162988301588, -1.1321054607530785]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.06594100273246695</v>
+        <v>3.827129155076214e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06594100273246695</v>
+        <v>3.827129155076214e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>14.45596235120217</v>
+        <v>13.88517860085352</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.582309973051835, 19.3296147293525]</t>
+          <t>[9.625373566210166, 18.144983635496885]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.411078215442842e-07</v>
+        <v>4.510260587231585e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.411078215442842e-07</v>
+        <v>4.510260587231585e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>12.12346346346375</v>
+        <v>8.37715715715736</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.8325125125125332</v>
+        <v>4.682882882882995</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.07943943944004</v>
+        <v>12.07143143143172</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.76000000000012</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05679320762281437</v>
+        <v>0.03560842243410001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05679320762281437</v>
+        <v>0.03560842243410001</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>8.094990349428432</v>
+        <v>8.19964008450466</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.23004656552063096, 16.420027264377495]</t>
+          <t>[-0.22497872915635853, 16.624258898165678]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05639332761832616</v>
+        <v>0.05616766529417516</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05639332761832616</v>
+        <v>0.05616766529417516</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.880579450138389</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.402632347373084, -1.3585265529036952]</t>
+          <t>[1.0377633390236554, 4.132184931748737]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.00041667494704134</v>
+        <v>0.001573373014130297</v>
       </c>
       <c r="S6" t="n">
-        <v>0.00041667494704134</v>
+        <v>0.001573373014130297</v>
       </c>
       <c r="T6" t="n">
-        <v>12.38967883291889</v>
+        <v>13.19005232142028</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.642484086072205, 17.136873579765577]</t>
+          <t>[8.740115940005897, 17.639988702834664]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.897056254364983e-06</v>
+        <v>3.459460213850463e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.897056254364983e-06</v>
+        <v>3.459460213850463e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>10.43451451451457</v>
+        <v>13.17849849849853</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.92108108108111</v>
+        <v>7.665045045045063</v>
       </c>
       <c r="Z6" t="n">
-        <v>15.94794794794803</v>
+        <v>18.691951951952</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.76000000000012</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04029885444793568</v>
+        <v>0.06925100668920903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04029885444793568</v>
+        <v>0.06925100668920903</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.815805874355203</v>
+        <v>7.495142413179052</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.3771224880918602, 15.254489260618545]</t>
+          <t>[-1.2064155497007834, 16.19670037605889]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03989169849936447</v>
+        <v>0.08961079478189071</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03989169849936447</v>
+        <v>0.08961079478189071</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.031526844905466</v>
+        <v>2.647868883205812</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-4.352316549117392, -1.7107371406935403]</t>
+          <t>[0.7736053981812714, 4.522132368230352]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.192243553162832e-05</v>
+        <v>0.006654147679102662</v>
       </c>
       <c r="S7" t="n">
-        <v>3.192243553162832e-05</v>
+        <v>0.006654147679102662</v>
       </c>
       <c r="T7" t="n">
-        <v>12.414376984932</v>
+        <v>14.3046326107477</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.081402448285704, 16.74735152157829]</t>
+          <t>[9.711391600364117, 18.897873621131275]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.831644114857482e-07</v>
+        <v>1.229012200898438e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>6.831644114857482e-07</v>
+        <v>1.229012200898438e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>10.98130130130136</v>
+        <v>12.95437437437441</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.196916916916948</v>
+        <v>6.275475475475494</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.76568568568577</v>
+        <v>19.63327327327332</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.76000000000012</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.106309939417729</v>
+        <v>0.1838156260647319</v>
       </c>
       <c r="I8" t="n">
-        <v>0.106309939417729</v>
+        <v>0.1838156260647319</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.869221309892835</v>
+        <v>6.254283454279176</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.119234582772184, 16.857677202557856]</t>
+          <t>[-2.8134449208877887, 15.32201182944614]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.08463779348071765</v>
+        <v>0.1716122905644439</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08463779348071765</v>
+        <v>0.1716122905644439</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.767368904063081</v>
+        <v>-2.44031621540108</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.66679028821547, -0.8679475199106927]</t>
+          <t>[-5.566185182035969, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.005243813844272749</v>
+        <v>0.1228682772488165</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005243813844272749</v>
+        <v>0.1228682772488165</v>
       </c>
       <c r="T8" t="n">
-        <v>16.09006219907311</v>
+        <v>14.0633226348365</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.851553905459447, 21.328570492686772]</t>
+          <t>[9.326935052121737, 18.799710217551254]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.650773817640783e-07</v>
+        <v>3.339920906508809e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.650773817640783e-07</v>
+        <v>3.339920906508809e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>10.02442442442448</v>
+        <v>8.696016016016038</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.144024024024036</v>
+        <v>-2.442952952952961</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.90482482482492</v>
+        <v>19.83498498498504</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.76000000000012</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.114167114871992</v>
+        <v>0.3072117336260169</v>
       </c>
       <c r="I9" t="n">
-        <v>0.114167114871992</v>
+        <v>0.3072117336260169</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.72418544869394</v>
+        <v>5.477257122920014</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-1.4573705033174855, 14.905741400705367]</t>
+          <t>[-4.006836568663264, 14.961350814503291]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1048155273427156</v>
+        <v>0.2508852380095776</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1048155273427156</v>
+        <v>0.2508852380095776</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.912000333716311</v>
+        <v>-2.553526761476388</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.830290142214583, 0.006289474781961957]</t>
+          <t>[-5.6856852028932385, 0.5786316799404627]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0507242062462705</v>
+        <v>0.107557078832887</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0507242062462705</v>
+        <v>0.107557078832887</v>
       </c>
       <c r="T9" t="n">
-        <v>13.83362710926306</v>
+        <v>14.62346983513498</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.44235423282764, 18.224899985698478]</t>
+          <t>[9.592406595076064, 19.654533075193893]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.589059035697289e-08</v>
+        <v>5.136056155929936e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>9.589059035697289e-08</v>
+        <v>5.136056155929936e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>6.925965965966002</v>
+        <v>9.099439439439463</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.02278278278278378</v>
+        <v>-2.061941941941948</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.87471471471479</v>
+        <v>20.26082082082088</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.76000000000012</v>
+        <v>22.39000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4815321792027726</v>
+        <v>0.3534952714344888</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4815321792027726</v>
+        <v>0.3534952714344888</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.148186477958141</v>
+        <v>5.859458799627342</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.125059337604168, 12.42143229352045]</t>
+          <t>[-4.905805663025955, 16.62472326228064]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3179585509680796</v>
+        <v>0.2787961898415967</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3179585509680796</v>
+        <v>0.2787961898415967</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.522052897234695</v>
+        <v>-2.025210879791619</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.610185015177815, 1.566079220708425]</t>
+          <t>[-5.157369321208469, 1.1069475616252316]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.3261669190924341</v>
+        <v>0.1994429032139815</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3261669190924341</v>
+        <v>0.1994429032139815</v>
       </c>
       <c r="T10" t="n">
-        <v>15.84229727249292</v>
+        <v>15.73925255660278</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[11.106901632737326, 20.577692912248516]</t>
+          <t>[10.160560820431481, 21.317944292774072]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.493839956763111e-08</v>
+        <v>9.223455972318106e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>2.493839956763111e-08</v>
+        <v>9.223455972318106e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>5.513433433433462</v>
+        <v>7.216796796796819</v>
       </c>
       <c r="Y10" t="n">
-        <v>-5.672912912912944</v>
+        <v>-3.944584584584591</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.69977977977987</v>
+        <v>18.37817817817823</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_9_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_9_sawtooth_0.5_.xlsx
@@ -587,63 +587,63 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6096806208067198</v>
+        <v>0.05888863853466131</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6096806208067198</v>
+        <v>0.05888863853466131</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.873323447694827</v>
+        <v>7.664040441520074</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-5.235292234706125, 10.981939130095778]</t>
+          <t>[-1.300819082691607, 16.628899965731755]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4790942653775361</v>
+        <v>0.09196442539457794</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4790942653775361</v>
+        <v>0.09196442539457794</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8176317216550011</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.956079637853814, 2.320816194543812]</t>
+          <t>[-2.905737349266235, 0.69184222601577]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.6023559687572058</v>
+        <v>0.2216048539712472</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6023559687572058</v>
+        <v>0.2216048539712472</v>
       </c>
       <c r="T2" t="n">
-        <v>11.27073123817208</v>
+        <v>14.72762739041587</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[7.059477421560091, 15.481985054784067]</t>
+          <t>[10.088906585138862, 19.366348195692883]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.482267692949236e-06</v>
+        <v>8.08782660843832e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>2.482267692949236e-06</v>
+        <v>8.08782660843832e-08</v>
       </c>
       <c r="X2" t="n">
-        <v>3.382082082082164</v>
+        <v>4.578818818818931</v>
       </c>
       <c r="Y2" t="n">
-        <v>-9.599909909910142</v>
+        <v>-2.861761761761827</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.36407407407447</v>
+        <v>12.01939939939969</v>
       </c>
     </row>
     <row r="3">
@@ -673,63 +673,63 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4364407198044931</v>
+        <v>0.03746224760256911</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4364407198044931</v>
+        <v>0.03746224760256911</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.189797053738692</v>
+        <v>9.153906297976549</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.333231211233798, 12.712825318711182]</t>
+          <t>[-0.3928742351255785, 18.700686831078677]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.3274174498818065</v>
+        <v>0.05976964056167788</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3274174498818065</v>
+        <v>0.05976964056167788</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.396263401595464</v>
+        <v>-1.22015810770054</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.50955341866643, 1.7170266154755023]</t>
+          <t>[-2.691895206679542, 0.2515789912784627]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3711796174488051</v>
+        <v>0.1018994373576532</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3711796174488051</v>
+        <v>0.1018994373576532</v>
       </c>
       <c r="T3" t="n">
-        <v>11.87289968298832</v>
+        <v>15.62243305886652</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.073513567262134, 16.672285798714512]</t>
+          <t>[10.492077936914237, 20.75278818081881]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.748779093099458e-06</v>
+        <v>1.980261552514406e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>9.748779093099458e-06</v>
+        <v>1.980261552514406e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>5.775555555555695</v>
+        <v>5.047107107107223</v>
       </c>
       <c r="Y3" t="n">
-        <v>-7.102372372372542</v>
+        <v>-1.040640640640672</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.65348348348393</v>
+        <v>11.13485485485512</v>
       </c>
     </row>
     <row r="4">
@@ -759,63 +759,63 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7416111861138102</v>
+        <v>0.2557720734382043</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7416111861138102</v>
+        <v>0.2557720734382043</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.160552264796364</v>
+        <v>5.677588681492179</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-7.847627953370742, 14.168732482963469]</t>
+          <t>[-3.233548700164337, 14.588726063148695]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.5659660593504228</v>
+        <v>0.2059727279941301</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5659660593504228</v>
+        <v>0.2059727279941301</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.836526636332772</v>
+        <v>-1.974895081535927</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.9309482290578535, 1.2578949563923087]</t>
+          <t>[-5.107053522952777, 1.1572633598809237]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2382071584112135</v>
+        <v>0.2106348920073915</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2382071584112135</v>
+        <v>0.2106348920073915</v>
       </c>
       <c r="T4" t="n">
-        <v>15.21563789837347</v>
+        <v>15.9701351129096</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.29253624748165, 21.138739549265285]</t>
+          <t>[11.093753169704087, 20.846517056115104]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.143654590478164e-06</v>
+        <v>4.055266411562286e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>5.143654590478164e-06</v>
+        <v>4.055266411562286e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>7.596676676676861</v>
+        <v>8.169029029029225</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.203203203203325</v>
+        <v>-4.78694694694706</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.39655655655704</v>
+        <v>21.12500500500551</v>
       </c>
     </row>
     <row r="5">
@@ -845,63 +845,63 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007290346212915022</v>
+        <v>0.004685806083760791</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007290346212915022</v>
+        <v>0.004685806083760791</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>9.860930522735769</v>
+        <v>10.98817158219309</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[1.8026379472797913, 17.919223098191747]</t>
+          <t>[2.7282098485434823, 19.248133315842704]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01759757688795527</v>
+        <v>0.01026665590250109</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01759757688795527</v>
+        <v>0.01026665590250109</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.025210879791619</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.9183162988301588, -1.1321054607530785]</t>
+          <t>[-3.559842726590235, -1.9748950815359265]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.827129155076214e-05</v>
+        <v>9.092568031832116e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>3.827129155076214e-05</v>
+        <v>9.092568031832116e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>13.88517860085352</v>
+        <v>12.9120935732638</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.625373566210166, 18.144983635496885]</t>
+          <t>[8.596887650280632, 17.227299496246967]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.510260587231585e-08</v>
+        <v>2.850370042217776e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>4.510260587231585e-08</v>
+        <v>2.850370042217776e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>8.37715715715736</v>
+        <v>11.44704704704732</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.682882882882995</v>
+        <v>8.169029029029227</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.07143143143172</v>
+        <v>14.72506506506541</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.39000000000006</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03560842243410001</v>
+        <v>0.05757872512952433</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03560842243410001</v>
+        <v>0.05757872512952433</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>8.19964008450466</v>
+        <v>9.592948536914285</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-0.22497872915635853, 16.624258898165678]</t>
+          <t>[0.08866938970699323, 19.097227684121577]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.05616766529417516</v>
+        <v>0.04798810789226993</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05616766529417516</v>
+        <v>0.04798810789226993</v>
       </c>
       <c r="P6" t="n">
-        <v>2.584974135386196</v>
+        <v>-3.094421592725082</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0377633390236554, 4.132184931748737]</t>
+          <t>[-4.490684994320546, -1.6981581911296177]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001573373014130297</v>
+        <v>5.35341089360486e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001573373014130297</v>
+        <v>5.35341089360486e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>13.19005232142028</v>
+        <v>15.82041882403336</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.740115940005897, 17.639988702834664]</t>
+          <t>[10.12666176206057, 21.514175886006157]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.459460213850463e-07</v>
+        <v>1.235992638681793e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>3.459460213850463e-07</v>
+        <v>1.235992638681793e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>13.17849849849853</v>
+        <v>11.01705705705709</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.665045045045063</v>
+        <v>6.045945945945959</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.691951951952</v>
+        <v>15.98816816816821</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.39000000000006</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06925100668920903</v>
+        <v>0.2606992494314735</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06925100668920903</v>
+        <v>0.2606992494314735</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.495142413179052</v>
+        <v>5.68000051477018</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.2064155497007834, 16.19670037605889]</t>
+          <t>[-3.839770118196771, 15.199771147737131]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.08961079478189071</v>
+        <v>0.2357579586509584</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08961079478189071</v>
+        <v>0.2357579586509584</v>
       </c>
       <c r="P7" t="n">
-        <v>2.647868883205812</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.7736053981812714, 4.522132368230352]</t>
+          <t>[-0.34592111300788453, 5.7422904759308935]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.006654147679102662</v>
+        <v>0.08096541150754577</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006654147679102662</v>
+        <v>0.08096541150754577</v>
       </c>
       <c r="T7" t="n">
-        <v>14.3046326107477</v>
+        <v>14.26322933327536</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.711391600364117, 18.897873621131275]</t>
+          <t>[9.273598933112659, 19.25285973343806]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.229012200898438e-07</v>
+        <v>7.144178459927986e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.229012200898438e-07</v>
+        <v>7.144178459927986e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>12.95437437437441</v>
+        <v>12.7636636636637</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.275475475475494</v>
+        <v>1.925745745745751</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.63327327327332</v>
+        <v>23.60158158158164</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.39000000000006</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1838156260647319</v>
+        <v>0.1828531788102137</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1838156260647319</v>
+        <v>0.1828531788102137</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.254283454279176</v>
+        <v>6.370839077366735</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.8134449208877887, 15.32201182944614]</t>
+          <t>[-2.624814666442127, 15.366492821175598]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1716122905644439</v>
+        <v>0.1606502001138859</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1716122905644439</v>
+        <v>0.1606502001138859</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.44031621540108</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.566185182035969, 0.6855527512338089]</t>
+          <t>[-5.327185140321432, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1228682772488165</v>
+        <v>0.1669980371806099</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1228682772488165</v>
+        <v>0.1669980371806099</v>
       </c>
       <c r="T8" t="n">
-        <v>14.0633226348365</v>
+        <v>13.52555374529755</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[9.326935052121737, 18.799710217551254]</t>
+          <t>[8.784742562641092, 18.266364927954]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.339920906508809e-07</v>
+        <v>7.422463328410345e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>3.339920906508809e-07</v>
+        <v>7.422463328410345e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>8.696016016016038</v>
+        <v>7.792552552552573</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.442952952952961</v>
+        <v>-3.381251251251262</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.83498498498504</v>
+        <v>18.96635635635641</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.39000000000006</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3072117336260169</v>
+        <v>0.1365711824900177</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3072117336260169</v>
+        <v>0.1365711824900177</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.477257122920014</v>
+        <v>7.538031037940916</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-4.006836568663264, 14.961350814503291]</t>
+          <t>[-1.5391943651240005, 16.615256441005833]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.2508852380095776</v>
+        <v>0.1013499119713577</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2508852380095776</v>
+        <v>0.1013499119713577</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.553526761476388</v>
+        <v>-1.509473947670772</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.6856852028932385, 0.5786316799404627]</t>
+          <t>[-3.1195794918529276, 0.10063159651138376]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.107557078832887</v>
+        <v>0.06545332432287365</v>
       </c>
       <c r="S9" t="n">
-        <v>0.107557078832887</v>
+        <v>0.06545332432287365</v>
       </c>
       <c r="T9" t="n">
-        <v>14.62346983513498</v>
+        <v>13.86920728869543</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.592406595076064, 19.654533075193893]</t>
+          <t>[8.750009426055435, 18.988405151335435]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.136056155929936e-07</v>
+        <v>1.98383363203547e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>5.136056155929936e-07</v>
+        <v>1.98383363203547e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>9.099439439439463</v>
+        <v>5.37417417417419</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.061941941941948</v>
+        <v>-0.3582782782782754</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.26082082082088</v>
+        <v>11.10662662662665</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.39000000000006</v>
+        <v>22.37000000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3534952714344888</v>
+        <v>0.3612258842250735</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3534952714344888</v>
+        <v>0.3612258842250735</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.859458799627342</v>
+        <v>5.710495062539326</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.905805663025955, 16.62472326228064]</t>
+          <t>[-4.395273524203461, 15.816263649282114]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2787961898415967</v>
+        <v>0.2610957241660243</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2787961898415967</v>
+        <v>0.2610957241660243</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.025210879791619</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-5.157369321208469, 1.1069475616252316]</t>
+          <t>[-4.415211296937006, 1.7736318885131563]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1994429032139815</v>
+        <v>0.3945232218793464</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1994429032139815</v>
+        <v>0.3945232218793464</v>
       </c>
       <c r="T10" t="n">
-        <v>15.73925255660278</v>
+        <v>14.91041215720103</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.160560820431481, 21.317944292774072]</t>
+          <t>[9.387380738469705, 20.433443575932355]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.223455972318106e-07</v>
+        <v>2.117574314564052e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>9.223455972318106e-07</v>
+        <v>2.117574314564052e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>7.216796796796819</v>
+        <v>4.702402402402413</v>
       </c>
       <c r="Y10" t="n">
-        <v>-3.944584584584591</v>
+        <v>-6.314654654654671</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.37817817817823</v>
+        <v>15.7194594594595</v>
       </c>
     </row>
   </sheetData>
